--- a/output/carin-rtpbc-Coverage.xlsx
+++ b/output/carin-rtpbc-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="400">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -209,6 +209,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Coverage.implicitRules</t>
   </si>
   <si>
@@ -331,6 +335,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Coverage.modifierExtension</t>
   </si>
   <si>
@@ -405,7 +413,7 @@
     <t>A code specifying the state of the resource instance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -498,11 +506,7 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>ID assigned to the subscriber</t>
+    <t>Health Plan Cardholder ID</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.</t>
@@ -615,7 +619,7 @@
     <t>Payer ID or Ref (TBD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-rtpbc-payer-Organization)
+    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -719,10 +723,10 @@
     <t>Coverage.payor.identifier</t>
   </si>
   <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+    <t>Payer ID</t>
+  </si>
+  <si>
+    <t>Payer ID as defined in the participants' environment. E.g., an identifier defined in an eligibility service to represent the payer.</t>
   </si>
   <si>
     <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
@@ -761,7 +765,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -815,9 +819,6 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>TODO: Payer ID system</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -830,7 +831,7 @@
     <t>Coverage.payor.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>Payer ID Value</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -912,7 +913,7 @@
     <t>Coverage.class</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Pharmacy coverage identifiers</t>
   </si>
   <si>
     <t>4</t>
@@ -922,13 +923,10 @@
 </t>
   </si>
   <si>
-    <t>Additional coverage classifications</t>
-  </si>
-  <si>
-    <t>A suite of underwriter specific classifiers.</t>
-  </si>
-  <si>
-    <t>For example may be used to identify a class of coverage or employer group, Policy, Plan.</t>
+    <t>Identifiers used by the payer/PBM to located the patient's coverage. IIN (BIN) number, Processor Control Number (PCN), pharmacy benefit Group ID and patient's PBM Member ID</t>
+  </si>
+  <si>
+    <t>Populate with identifiers retrieved from an eligibility service or other source agreed between trading partners</t>
   </si>
   <si>
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
@@ -938,11 +936,10 @@
 </t>
   </si>
   <si>
+    <t>The value of the .type element indicates the type of coverage identifier  (rxbin=IIN (BIN), rxpcn=PCN, group=Group ID, rxid=PBM Member ID)</t>
+  </si>
+  <si>
     <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>Coverage.class.id</t>
@@ -1025,7 +1022,13 @@
     <t>bin</t>
   </si>
   <si>
-    <t>BIN</t>
+    <t>IIN (BIN) number</t>
+  </si>
+  <si>
+    <t>A suite of underwriter specific classifiers.</t>
+  </si>
+  <si>
+    <t>Populate as agreed between trading partners</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1039,7 +1042,7 @@
     <t>pcn</t>
   </si>
   <si>
-    <t>PCN (IIN)</t>
+    <t>Processor Control Number (PCN)</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1053,7 +1056,10 @@
     <t>group-id</t>
   </si>
   <si>
-    <t>Group ID</t>
+    <t>Pharmacy Benefit Group ID</t>
+  </si>
+  <si>
+    <t>The patient's Group ID associated with their pharmacy benefit</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1068,6 +1074,9 @@
   </si>
   <si>
     <t>PBM Member ID</t>
+  </si>
+  <si>
+    <t>The patient's pharmacy benefit member ID (which may differ from their overall health insurance ID)</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1424,7 +1433,7 @@
     <col min="1" max="1" width="52.0625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.89453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="30.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1448,7 +1457,7 @@
     <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="126.7109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1917,7 +1926,7 @@
         <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>42</v>
@@ -1940,7 +1949,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1963,16 +1972,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2022,7 +2031,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2034,7 +2043,7 @@
         <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>42</v>
@@ -2057,7 +2066,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2080,16 +2089,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2115,13 +2124,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2139,7 +2148,7 @@
         <v>42</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
@@ -2151,7 +2160,7 @@
         <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>42</v>
@@ -2174,11 +2183,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2197,16 +2206,16 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2256,7 +2265,7 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
@@ -2268,13 +2277,13 @@
         <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2291,11 +2300,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2314,16 +2323,16 @@
         <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2373,7 +2382,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2391,7 +2400,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2408,11 +2417,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2431,16 +2440,16 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2490,7 +2499,7 @@
         <v>42</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2502,13 +2511,13 @@
         <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2525,11 +2534,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2548,19 +2557,19 @@
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2609,7 +2618,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2621,13 +2630,13 @@
         <v>42</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2644,7 +2653,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2667,19 +2676,19 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2728,7 +2737,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2740,30 +2749,30 @@
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2786,19 +2795,19 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2823,13 +2832,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2847,7 +2856,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>51</v>
@@ -2859,16 +2868,16 @@
         <v>42</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>42</v>
@@ -2882,7 +2891,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2905,17 +2914,17 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2940,13 +2949,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2964,7 +2973,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2976,7 +2985,7 @@
         <v>42</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>42</v>
@@ -2985,13 +2994,13 @@
         <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>42</v>
@@ -2999,7 +3008,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3022,19 +3031,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -3083,7 +3092,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3095,7 +3104,7 @@
         <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>42</v>
@@ -3104,21 +3113,21 @@
         <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3141,19 +3150,19 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3202,48 +3211,50 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
       </c>
@@ -3251,7 +3262,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
@@ -3260,19 +3271,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3321,7 +3332,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3333,7 +3344,7 @@
         <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>42</v>
@@ -3342,21 +3353,21 @@
         <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3379,17 +3390,17 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3438,7 +3449,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>51</v>
@@ -3450,30 +3461,30 @@
         <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3496,19 +3507,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3557,7 +3568,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3569,7 +3580,7 @@
         <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>42</v>
@@ -3581,10 +3592,10 @@
         <v>42</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>42</v>
@@ -3592,7 +3603,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3615,19 +3626,19 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3652,13 +3663,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3676,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3688,7 +3699,7 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>42</v>
@@ -3700,7 +3711,7 @@
         <v>42</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>42</v>
@@ -3711,7 +3722,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3734,17 +3745,17 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3793,7 +3804,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3805,37 +3816,37 @@
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>51</v>
@@ -3844,7 +3855,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3853,19 +3864,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3914,7 +3925,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3926,7 +3937,7 @@
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>42</v>
@@ -3935,21 +3946,21 @@
         <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3972,13 +3983,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4029,7 +4040,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4047,7 +4058,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -4064,11 +4075,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4087,16 +4098,16 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4134,19 +4145,19 @@
         <v>42</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4158,13 +4169,13 @@
         <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4181,7 +4192,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4204,16 +4215,16 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4263,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4272,16 +4283,16 @@
         <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4298,7 +4309,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4321,16 +4332,16 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4356,13 +4367,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4380,7 +4391,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4392,13 +4403,13 @@
         <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4413,15 +4424,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4429,7 +4442,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
@@ -4438,16 +4451,16 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4497,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4509,13 +4522,13 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4532,7 +4545,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4555,13 +4568,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4612,7 +4625,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4630,7 +4643,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4647,11 +4660,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4670,16 +4683,16 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4717,19 +4730,19 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4741,13 +4754,13 @@
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4764,7 +4777,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4787,19 +4800,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4824,13 +4837,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4848,7 +4861,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4860,13 +4873,13 @@
         <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4875,7 +4888,7 @@
         <v>42</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4883,7 +4896,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4906,19 +4919,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4943,13 +4956,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4967,7 +4980,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4979,13 +4992,13 @@
         <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4994,7 +5007,7 @@
         <v>42</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -5002,17 +5015,17 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -5027,19 +5040,19 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5052,7 +5065,7 @@
         <v>42</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>42</v>
@@ -5064,10 +5077,10 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="Y31" t="s" s="2">
         <v>42</v>
@@ -5100,7 +5113,7 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>42</v>
@@ -5121,7 +5134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>261</v>
       </c>
@@ -5129,7 +5142,9 @@
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="E32" t="s" s="2">
         <v>51</v>
       </c>
@@ -5137,7 +5152,7 @@
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -5146,7 +5161,7 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>262</v>
@@ -5217,7 +5232,7 @@
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -5263,7 +5278,7 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>270</v>
@@ -5332,7 +5347,7 @@
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
@@ -5449,7 +5464,7 @@
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5495,7 +5510,7 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>284</v>
@@ -5566,13 +5581,13 @@
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5595,15 +5610,17 @@
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="E36" t="s" s="2">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>290</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>42</v>
@@ -5615,16 +5632,16 @@
         <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5661,9 +5678,11 @@
         <v>42</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5683,7 +5702,7 @@
         <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -5706,7 +5725,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5729,13 +5748,13 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5786,7 +5805,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5804,7 +5823,7 @@
         <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5821,11 +5840,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5844,16 +5863,16 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5903,7 +5922,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5915,13 +5934,13 @@
         <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5938,11 +5957,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5961,19 +5980,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -6022,7 +6041,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6034,13 +6053,13 @@
         <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -6057,7 +6076,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6080,17 +6099,17 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6115,14 +6134,14 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
       </c>
@@ -6139,7 +6158,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>51</v>
@@ -6151,7 +6170,7 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
@@ -6174,7 +6193,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6197,19 +6216,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6258,7 +6277,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6270,7 +6289,7 @@
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
@@ -6282,18 +6301,18 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6316,17 +6335,17 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6375,7 +6394,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6387,7 +6406,7 @@
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
@@ -6399,36 +6418,36 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AO42" t="s" s="2">
-        <v>319</v>
-      </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="E43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
@@ -6440,16 +6459,16 @@
         <v>291</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6510,7 +6529,7 @@
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
@@ -6533,7 +6552,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6556,13 +6575,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6613,7 +6632,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6631,7 +6650,7 @@
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6648,11 +6667,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6671,16 +6690,16 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6730,7 +6749,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6742,13 +6761,13 @@
         <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6765,11 +6784,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6788,19 +6807,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6849,7 +6868,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6861,13 +6880,13 @@
         <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6884,7 +6903,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6907,17 +6926,17 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6927,7 +6946,7 @@
         <v>42</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>42</v>
@@ -6942,14 +6961,14 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6966,7 +6985,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -6978,7 +6997,7 @@
         <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>42</v>
@@ -7001,7 +7020,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7024,19 +7043,19 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -7085,7 +7104,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -7097,7 +7116,7 @@
         <v>42</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
@@ -7109,18 +7128,18 @@
         <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7143,17 +7162,17 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7202,7 +7221,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7214,7 +7233,7 @@
         <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>42</v>
@@ -7226,36 +7245,36 @@
         <v>42</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AO49" t="s" s="2">
-        <v>319</v>
-      </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>42</v>
@@ -7267,16 +7286,16 @@
         <v>291</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7337,7 +7356,7 @@
         <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>42</v>
@@ -7360,7 +7379,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7383,13 +7402,13 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7440,7 +7459,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7458,7 +7477,7 @@
         <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7475,11 +7494,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7498,16 +7517,16 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7557,7 +7576,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7569,13 +7588,13 @@
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7592,11 +7611,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7615,19 +7634,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7676,7 +7695,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7688,13 +7707,13 @@
         <v>42</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7711,7 +7730,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7734,17 +7753,17 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7754,7 +7773,7 @@
         <v>42</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>42</v>
@@ -7769,14 +7788,14 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7793,7 +7812,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>51</v>
@@ -7805,7 +7824,7 @@
         <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
@@ -7828,7 +7847,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7851,19 +7870,19 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7912,7 +7931,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -7924,7 +7943,7 @@
         <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>42</v>
@@ -7936,18 +7955,18 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7970,17 +7989,17 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8029,7 +8048,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8041,7 +8060,7 @@
         <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>42</v>
@@ -8053,36 +8072,36 @@
         <v>42</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AO56" t="s" s="2">
-        <v>319</v>
-      </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>42</v>
@@ -8094,16 +8113,16 @@
         <v>291</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8164,7 +8183,7 @@
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
@@ -8187,7 +8206,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8210,13 +8229,13 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8267,7 +8286,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8285,7 +8304,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -8302,11 +8321,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8325,16 +8344,16 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8384,7 +8403,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8396,13 +8415,13 @@
         <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -8419,11 +8438,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8442,19 +8461,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8503,7 +8522,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8515,13 +8534,13 @@
         <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8538,7 +8557,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8561,17 +8580,17 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8581,7 +8600,7 @@
         <v>42</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>42</v>
@@ -8596,14 +8615,14 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8620,7 +8639,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>51</v>
@@ -8632,7 +8651,7 @@
         <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
@@ -8655,7 +8674,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8678,19 +8697,19 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8739,7 +8758,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>51</v>
@@ -8751,7 +8770,7 @@
         <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
@@ -8763,18 +8782,18 @@
         <v>42</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8797,17 +8816,17 @@
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8856,7 +8875,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -8868,7 +8887,7 @@
         <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
@@ -8880,27 +8899,27 @@
         <v>42</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AO63" t="s" s="2">
-        <v>319</v>
-      </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>43</v>
@@ -8909,7 +8928,7 @@
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>42</v>
@@ -8921,16 +8940,16 @@
         <v>291</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8991,7 +9010,7 @@
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>42</v>
@@ -9014,7 +9033,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9037,13 +9056,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9094,7 +9113,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9112,7 +9131,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -9129,11 +9148,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9152,16 +9171,16 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9211,7 +9230,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9223,13 +9242,13 @@
         <v>42</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -9246,11 +9265,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9269,19 +9288,19 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9330,7 +9349,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9342,13 +9361,13 @@
         <v>42</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -9365,7 +9384,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9388,17 +9407,17 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9408,7 +9427,7 @@
         <v>42</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>42</v>
@@ -9423,14 +9442,14 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
       </c>
@@ -9447,7 +9466,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>51</v>
@@ -9459,7 +9478,7 @@
         <v>42</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>42</v>
@@ -9482,7 +9501,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9505,19 +9524,19 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9566,7 +9585,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>51</v>
@@ -9578,7 +9597,7 @@
         <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>42</v>
@@ -9590,18 +9609,18 @@
         <v>42</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9624,17 +9643,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9683,7 +9702,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9695,7 +9714,7 @@
         <v>42</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>42</v>
@@ -9707,18 +9726,18 @@
         <v>42</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9741,17 +9760,17 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9800,7 +9819,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -9812,7 +9831,7 @@
         <v>42</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>42</v>
@@ -9827,7 +9846,7 @@
         <v>42</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>42</v>
@@ -9835,7 +9854,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9858,17 +9877,17 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9917,7 +9936,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -9929,7 +9948,7 @@
         <v>42</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
@@ -9941,7 +9960,7 @@
         <v>42</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>42</v>
@@ -9952,11 +9971,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9978,16 +9997,16 @@
         <v>291</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -10036,7 +10055,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10048,7 +10067,7 @@
         <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>42</v>
@@ -10071,7 +10090,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10094,13 +10113,13 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10151,7 +10170,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10169,7 +10188,7 @@
         <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -10186,11 +10205,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10209,16 +10228,16 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10268,7 +10287,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10280,13 +10299,13 @@
         <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -10303,11 +10322,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10326,19 +10345,19 @@
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10387,7 +10406,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10399,13 +10418,13 @@
         <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -10422,7 +10441,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10445,19 +10464,19 @@
         <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10482,13 +10501,13 @@
         <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -10506,7 +10525,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10518,7 +10537,7 @@
         <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10541,7 +10560,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10564,19 +10583,19 @@
         <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10625,7 +10644,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>51</v>
@@ -10637,7 +10656,7 @@
         <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
@@ -10649,18 +10668,18 @@
         <v>42</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10686,14 +10705,14 @@
         <v>291</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10742,7 +10761,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -10754,7 +10773,7 @@
         <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
@@ -10777,7 +10796,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10800,13 +10819,13 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10857,7 +10876,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -10875,7 +10894,7 @@
         <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10892,11 +10911,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10915,16 +10934,16 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10974,7 +10993,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -10986,13 +11005,13 @@
         <v>42</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -11009,11 +11028,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11032,19 +11051,19 @@
         <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11093,7 +11112,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11105,13 +11124,13 @@
         <v>42</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -11128,7 +11147,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11151,17 +11170,17 @@
         <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11186,13 +11205,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -11210,7 +11229,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11222,7 +11241,7 @@
         <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
@@ -11245,7 +11264,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11268,17 +11287,17 @@
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11327,7 +11346,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11339,7 +11358,7 @@
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11362,7 +11381,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11385,19 +11404,19 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11446,7 +11465,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11458,7 +11477,7 @@
         <v>42</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>42</v>
@@ -11481,7 +11500,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11504,17 +11523,17 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11563,7 +11582,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11575,25 +11594,25 @@
         <v>42</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/output/carin-rtpbc-Coverage.xlsx
+++ b/output/carin-rtpbc-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="397">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -175,338 +175,334 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Coverage.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Coverage.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Coverage.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Coverage.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Coverage.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Coverage.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Coverage.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for the coverage</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this coverage.</t>
+  </si>
+  <si>
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.</t>
+  </si>
+  <si>
+    <t>Allows coverages to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>IN1-2</t>
+  </si>
+  <si>
+    <t>C.32, C.33, C.39</t>
+  </si>
+  <si>
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.0</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>Act.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Coverage.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Coverage category such as medical or accident</t>
+  </si>
+  <si>
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>The order of application of coverages is dependent on the types of coverage.</t>
+  </si>
+  <si>
+    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>IN1-15</t>
+  </si>
+  <si>
+    <t>Coverage.policyHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Owner of the policy</t>
+  </si>
+  <si>
+    <t>The party who 'owns' the insurance policy.</t>
+  </si>
+  <si>
+    <t>For example: may be an individual, corporation or the subscriber's employer.</t>
+  </si>
+  <si>
+    <t>This provides employer information in the case of Worker's Compensation and other policies.</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>D01 through D09</t>
+  </si>
+  <si>
+    <t>IN1-16, 18,  19-name of insured, address, date of birth</t>
+  </si>
+  <si>
+    <t>C.35</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Subscriber to the policy</t>
+  </si>
+  <si>
+    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
+  </si>
+  <si>
+    <t>May be self or a parent in the case of dependants.</t>
+  </si>
+  <si>
+    <t>This is the party who is entitled to the benfits under the policy.</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Coverage.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Coverage.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Coverage.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Coverage.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Coverage.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Coverage.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for the coverage</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this coverage.</t>
-  </si>
-  <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.</t>
-  </si>
-  <si>
-    <t>Allows coverages to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>IN1-2</t>
-  </si>
-  <si>
-    <t>C.32, C.33, C.39</t>
-  </si>
-  <si>
-    <t>Coverage.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>Act.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Coverage.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Coverage category such as medical or accident</t>
-  </si>
-  <si>
-    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>The order of application of coverages is dependent on the types of coverage.</t>
-  </si>
-  <si>
-    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>IN1-15</t>
-  </si>
-  <si>
-    <t>Coverage.policyHolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
-    <t>Owner of the policy</t>
-  </si>
-  <si>
-    <t>The party who 'owns' the insurance policy.</t>
-  </si>
-  <si>
-    <t>For example: may be an individual, corporation or the subscriber's employer.</t>
-  </si>
-  <si>
-    <t>This provides employer information in the case of Worker's Compensation and other policies.</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>D01 through D09</t>
-  </si>
-  <si>
-    <t>IN1-16, 18,  19-name of insured, address, date of birth</t>
-  </si>
-  <si>
-    <t>C.35</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Subscriber to the policy</t>
-  </si>
-  <si>
-    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
-  </si>
-  <si>
-    <t>May be self or a parent in the case of dependants.</t>
-  </si>
-  <si>
-    <t>This is the party who is entitled to the benfits under the policy.</t>
-  </si>
-  <si>
-    <t>Coverage.subscriberId</t>
-  </si>
-  <si>
-    <t>Health Plan Cardholder ID</t>
+    <t>ID assigned to the subscriber</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.</t>
@@ -619,7 +615,7 @@
     <t>Payer ID or Ref (TBD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-rtpbc-payer-Organization)
 </t>
   </si>
   <si>
@@ -723,10 +719,10 @@
     <t>Coverage.payor.identifier</t>
   </si>
   <si>
-    <t>Payer ID</t>
-  </si>
-  <si>
-    <t>Payer ID as defined in the participants' environment. E.g., an identifier defined in an eligibility service to represent the payer.</t>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
   </si>
   <si>
     <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
@@ -765,7 +761,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -819,6 +815,9 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
+    <t>TODO: Payer ID system</t>
+  </si>
+  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -831,7 +830,7 @@
     <t>Coverage.payor.identifier.value</t>
   </si>
   <si>
-    <t>Payer ID Value</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -913,7 +912,7 @@
     <t>Coverage.class</t>
   </si>
   <si>
-    <t>Pharmacy coverage identifiers</t>
+    <t>3</t>
   </si>
   <si>
     <t>4</t>
@@ -923,10 +922,13 @@
 </t>
   </si>
   <si>
-    <t>Identifiers used by the payer/PBM to located the patient's coverage. IIN (BIN) number, Processor Control Number (PCN), pharmacy benefit Group ID and patient's PBM Member ID</t>
-  </si>
-  <si>
-    <t>Populate with identifiers retrieved from an eligibility service or other source agreed between trading partners</t>
+    <t>Additional coverage classifications</t>
+  </si>
+  <si>
+    <t>A suite of underwriter specific classifiers.</t>
+  </si>
+  <si>
+    <t>For example may be used to identify a class of coverage or employer group, Policy, Plan.</t>
   </si>
   <si>
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
@@ -936,10 +938,11 @@
 </t>
   </si>
   <si>
-    <t>The value of the .type element indicates the type of coverage identifier  (rxbin=IIN (BIN), rxpcn=PCN, group=Group ID, rxid=PBM Member ID)</t>
-  </si>
-  <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>Coverage.class.id</t>
@@ -1022,13 +1025,7 @@
     <t>bin</t>
   </si>
   <si>
-    <t>IIN (BIN) number</t>
-  </si>
-  <si>
-    <t>A suite of underwriter specific classifiers.</t>
-  </si>
-  <si>
-    <t>Populate as agreed between trading partners</t>
+    <t>BIN</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1042,7 +1039,7 @@
     <t>pcn</t>
   </si>
   <si>
-    <t>Processor Control Number (PCN)</t>
+    <t>PCN (IIN)</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1056,10 +1053,7 @@
     <t>group-id</t>
   </si>
   <si>
-    <t>Pharmacy Benefit Group ID</t>
-  </si>
-  <si>
-    <t>The patient's Group ID associated with their pharmacy benefit</t>
+    <t>Group ID</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1074,9 +1068,6 @@
   </si>
   <si>
     <t>PBM Member ID</t>
-  </si>
-  <si>
-    <t>The patient's pharmacy benefit member ID (which may differ from their overall health insurance ID)</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1433,7 +1424,7 @@
     <col min="1" max="1" width="52.0625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="30.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="20.89453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1457,7 +1448,7 @@
     <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="126.7109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1926,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>42</v>
@@ -1949,7 +1940,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1972,16 +1963,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2031,7 +2022,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2043,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>42</v>
@@ -2066,7 +2057,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2089,16 +2080,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2124,32 +2115,32 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
@@ -2160,7 +2151,7 @@
         <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>42</v>
@@ -2183,11 +2174,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2206,16 +2197,16 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2265,25 +2256,25 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2300,11 +2291,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2323,16 +2314,16 @@
         <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2382,7 +2373,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2400,7 +2391,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2417,11 +2408,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2440,16 +2431,16 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2499,7 +2490,7 @@
         <v>42</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2511,13 +2502,13 @@
         <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2534,11 +2525,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2557,19 +2548,19 @@
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2618,7 +2609,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2630,13 +2621,13 @@
         <v>42</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2653,7 +2644,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2676,19 +2667,19 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2737,7 +2728,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2749,30 +2740,30 @@
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2795,19 +2786,19 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2832,52 +2823,52 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>42</v>
@@ -2891,7 +2882,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2914,17 +2905,17 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2949,58 +2940,58 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>42</v>
@@ -3008,7 +2999,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3031,19 +3022,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -3092,7 +3083,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3104,7 +3095,7 @@
         <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>42</v>
@@ -3113,21 +3104,21 @@
         <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3150,19 +3141,19 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3211,7 +3202,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3223,7 +3214,7 @@
         <v>42</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>42</v>
@@ -3232,29 +3223,27 @@
         <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>149</v>
-      </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D16" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>43</v>
       </c>
@@ -3262,7 +3251,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
@@ -3271,19 +3260,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3332,7 +3321,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3344,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>42</v>
@@ -3353,21 +3342,21 @@
         <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3390,17 +3379,17 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3449,7 +3438,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>51</v>
@@ -3461,30 +3450,30 @@
         <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3507,19 +3496,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3568,7 +3557,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3580,7 +3569,7 @@
         <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>42</v>
@@ -3592,10 +3581,10 @@
         <v>42</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>42</v>
@@ -3603,7 +3592,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3626,19 +3615,19 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3663,55 +3652,55 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>42</v>
@@ -3722,7 +3711,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3745,17 +3734,17 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3804,7 +3793,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3816,37 +3805,37 @@
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>51</v>
@@ -3855,7 +3844,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3864,19 +3853,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3925,7 +3914,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3937,7 +3926,7 @@
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>42</v>
@@ -3946,21 +3935,21 @@
         <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3983,13 +3972,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4040,25 +4029,25 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -4075,11 +4064,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4098,16 +4087,16 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4145,19 +4134,19 @@
         <v>42</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AB23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AC23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD23" t="s" s="2">
+      <c r="AE23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4169,13 +4158,13 @@
         <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4192,7 +4181,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4215,16 +4204,16 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4274,25 +4263,25 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AI24" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4309,7 +4298,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4332,16 +4321,16 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4367,74 +4356,72 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D26" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4442,7 +4429,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
@@ -4451,16 +4438,16 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4510,25 +4497,25 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4545,7 +4532,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4568,13 +4555,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4625,25 +4612,25 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4660,11 +4647,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4683,16 +4670,16 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4730,19 +4717,19 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AB28" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AC28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4754,13 +4741,13 @@
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4777,7 +4764,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4800,19 +4787,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4837,50 +4824,50 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4888,7 +4875,7 @@
         <v>42</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4896,7 +4883,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4919,19 +4906,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4956,58 +4943,58 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -5015,17 +5002,17 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -5040,19 +5027,19 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5065,22 +5052,22 @@
         <v>42</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="Y31" t="s" s="2">
         <v>42</v>
@@ -5113,7 +5100,7 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>42</v>
@@ -5134,7 +5121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>261</v>
       </c>
@@ -5142,9 +5129,7 @@
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D32" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>51</v>
       </c>
@@ -5152,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -5161,7 +5146,7 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>262</v>
@@ -5232,7 +5217,7 @@
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -5278,7 +5263,7 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>270</v>
@@ -5347,7 +5332,7 @@
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
@@ -5464,7 +5449,7 @@
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5510,7 +5495,7 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>284</v>
@@ -5581,13 +5566,13 @@
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5610,17 +5595,15 @@
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>290</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>42</v>
@@ -5632,16 +5615,16 @@
         <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5678,11 +5661,9 @@
         <v>42</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB36" t="s" s="2">
         <v>296</v>
       </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5702,7 +5683,7 @@
         <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -5725,7 +5706,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5748,13 +5729,13 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5805,25 +5786,25 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5840,11 +5821,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5863,16 +5844,16 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5922,7 +5903,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5934,13 +5915,13 @@
         <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5957,11 +5938,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5980,19 +5961,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -6041,7 +6022,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6053,13 +6034,13 @@
         <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -6076,7 +6057,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6099,17 +6080,17 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6134,13 +6115,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -6158,7 +6139,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>51</v>
@@ -6170,7 +6151,7 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
@@ -6193,7 +6174,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6216,19 +6197,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6277,7 +6258,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6289,7 +6270,7 @@
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
@@ -6301,18 +6282,18 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6335,17 +6316,17 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6394,60 +6375,60 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>318</v>
-      </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
@@ -6459,16 +6440,16 @@
         <v>291</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6529,7 +6510,7 @@
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
@@ -6552,7 +6533,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6575,13 +6556,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6632,25 +6613,25 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6667,11 +6648,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6690,16 +6671,16 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6749,7 +6730,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6761,13 +6742,13 @@
         <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6784,11 +6765,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6807,19 +6788,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6868,7 +6849,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6880,13 +6861,13 @@
         <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6903,7 +6884,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6926,17 +6907,17 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6946,7 +6927,7 @@
         <v>42</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>42</v>
@@ -6961,13 +6942,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6985,7 +6966,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -6997,7 +6978,7 @@
         <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>42</v>
@@ -7020,7 +7001,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7043,19 +7024,19 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -7104,7 +7085,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -7116,7 +7097,7 @@
         <v>42</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
@@ -7128,18 +7109,18 @@
         <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7162,17 +7143,17 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7221,60 +7202,60 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>318</v>
-      </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>42</v>
@@ -7286,16 +7267,16 @@
         <v>291</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7356,7 +7337,7 @@
         <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>42</v>
@@ -7379,7 +7360,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7402,13 +7383,13 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7459,25 +7440,25 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7494,11 +7475,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7517,16 +7498,16 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L52" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7576,7 +7557,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7588,13 +7569,13 @@
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7611,11 +7592,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7634,19 +7615,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7695,7 +7676,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7707,13 +7688,13 @@
         <v>42</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7730,7 +7711,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7753,17 +7734,17 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7773,7 +7754,7 @@
         <v>42</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>42</v>
@@ -7788,13 +7769,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7812,7 +7793,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>51</v>
@@ -7824,7 +7805,7 @@
         <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
@@ -7847,7 +7828,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7870,19 +7851,19 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7931,7 +7912,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -7943,7 +7924,7 @@
         <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>42</v>
@@ -7955,18 +7936,18 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7989,17 +7970,17 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8048,60 +8029,60 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>318</v>
-      </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B57" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="E57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>42</v>
@@ -8113,16 +8094,16 @@
         <v>291</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8183,7 +8164,7 @@
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
@@ -8206,7 +8187,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8229,13 +8210,13 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8286,25 +8267,25 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -8321,11 +8302,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8344,16 +8325,16 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K59" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L59" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8403,7 +8384,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8415,13 +8396,13 @@
         <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -8438,11 +8419,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8461,19 +8442,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8522,7 +8503,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8534,13 +8515,13 @@
         <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8557,7 +8538,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8580,17 +8561,17 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8600,7 +8581,7 @@
         <v>42</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>42</v>
@@ -8615,13 +8596,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8639,7 +8620,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>51</v>
@@ -8651,7 +8632,7 @@
         <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
@@ -8674,7 +8655,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8697,19 +8678,19 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8758,7 +8739,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>51</v>
@@ -8770,7 +8751,7 @@
         <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
@@ -8782,18 +8763,18 @@
         <v>42</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8816,17 +8797,17 @@
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8875,51 +8856,51 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AF63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>318</v>
-      </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>288</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>43</v>
@@ -8928,7 +8909,7 @@
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>42</v>
@@ -8940,16 +8921,16 @@
         <v>291</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -9010,7 +8991,7 @@
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>42</v>
@@ -9033,7 +9014,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9056,13 +9037,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9113,25 +9094,25 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -9148,11 +9129,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9171,16 +9152,16 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K66" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L66" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9230,7 +9211,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9242,13 +9223,13 @@
         <v>42</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -9265,11 +9246,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9288,19 +9269,19 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9349,7 +9330,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9361,13 +9342,13 @@
         <v>42</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -9384,7 +9365,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9407,17 +9388,17 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9427,7 +9408,7 @@
         <v>42</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>42</v>
@@ -9442,13 +9423,13 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -9466,7 +9447,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>51</v>
@@ -9478,7 +9459,7 @@
         <v>42</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>42</v>
@@ -9501,7 +9482,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9524,19 +9505,19 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9585,7 +9566,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>51</v>
@@ -9597,7 +9578,7 @@
         <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>42</v>
@@ -9609,18 +9590,18 @@
         <v>42</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9643,17 +9624,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9702,42 +9683,42 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9760,17 +9741,17 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9819,7 +9800,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -9831,7 +9812,7 @@
         <v>42</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>42</v>
@@ -9846,7 +9827,7 @@
         <v>42</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>42</v>
@@ -9854,7 +9835,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9877,17 +9858,17 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9936,7 +9917,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -9948,7 +9929,7 @@
         <v>42</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
@@ -9960,7 +9941,7 @@
         <v>42</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>42</v>
@@ -9971,11 +9952,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9997,16 +9978,16 @@
         <v>291</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -10055,7 +10036,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10067,7 +10048,7 @@
         <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>42</v>
@@ -10090,7 +10071,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10113,13 +10094,13 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10170,25 +10151,25 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -10205,11 +10186,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10228,16 +10209,16 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L75" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10287,7 +10268,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10299,13 +10280,13 @@
         <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -10322,11 +10303,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10345,19 +10326,19 @@
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10406,7 +10387,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10418,13 +10399,13 @@
         <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -10441,7 +10422,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10464,19 +10445,19 @@
         <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10501,13 +10482,13 @@
         <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -10525,7 +10506,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10537,7 +10518,7 @@
         <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10560,7 +10541,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10583,19 +10564,19 @@
         <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10644,7 +10625,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>51</v>
@@ -10656,7 +10637,7 @@
         <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
@@ -10668,18 +10649,18 @@
         <v>42</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10705,14 +10686,14 @@
         <v>291</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10761,7 +10742,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -10773,7 +10754,7 @@
         <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
@@ -10796,7 +10777,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10819,13 +10800,13 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10876,25 +10857,25 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10911,11 +10892,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10934,16 +10915,16 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K81" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L81" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10993,7 +10974,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11005,13 +10986,13 @@
         <v>42</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -11028,11 +11009,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11051,19 +11032,19 @@
         <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11112,7 +11093,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11124,13 +11105,13 @@
         <v>42</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -11147,7 +11128,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11170,17 +11151,17 @@
         <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11205,13 +11186,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -11229,7 +11210,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11241,7 +11222,7 @@
         <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
@@ -11264,7 +11245,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11287,17 +11268,17 @@
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11346,7 +11327,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11358,7 +11339,7 @@
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11381,7 +11362,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11404,19 +11385,19 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11465,7 +11446,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11477,7 +11458,7 @@
         <v>42</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>42</v>
@@ -11500,7 +11481,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11523,17 +11504,17 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11582,7 +11563,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11594,25 +11575,25 @@
         <v>42</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
